--- a/فرم%20گزارش%20کارکرد.xlsx
+++ b/فرم%20گزارش%20کارکرد.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Shinaa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\مهسا\rings-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC8E3D0-E342-8D4A-9B62-9DAAEE256B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="97" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="36">
   <si>
     <t>نام</t>
   </si>
@@ -109,17 +108,62 @@
     <t>6 . 25</t>
   </si>
   <si>
-    <t xml:space="preserve">پایتون </t>
+    <t>6 . 26</t>
+  </si>
+  <si>
+    <t>6 . 27</t>
+  </si>
+  <si>
+    <t>6 . 28</t>
+  </si>
+  <si>
+    <t>6 . 29</t>
+  </si>
+  <si>
+    <t>6 . 30</t>
+  </si>
+  <si>
+    <t>6 . 31</t>
+  </si>
+  <si>
+    <t>7 . 1</t>
+  </si>
+  <si>
+    <t>7 . 2</t>
+  </si>
+  <si>
+    <t>7 . 3</t>
+  </si>
+  <si>
+    <t>7 . 4</t>
+  </si>
+  <si>
+    <t>7 . 5</t>
+  </si>
+  <si>
+    <t>7 . 6</t>
+  </si>
+  <si>
+    <t>7 . 7</t>
+  </si>
+  <si>
+    <t>7 . 8</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,6 +610,33 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,22 +646,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,25 +673,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,48 +963,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75"/>
   <cols>
-    <col min="1" max="1" width="7.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.91796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5078125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.58984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.10546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43359375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.45703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.01171875" style="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -963,36 +1013,36 @@
       <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="G2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="2"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="4">
         <v>1</v>
       </c>
@@ -1024,18 +1074,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="36"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="9">
         <v>1</v>
       </c>
@@ -1067,30 +1117,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="5" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="6" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -1099,36 +1149,36 @@
       <c r="F7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="G7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="35"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="4">
         <v>1</v>
       </c>
@@ -1160,18 +1210,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="9">
         <v>1</v>
       </c>
@@ -1203,30 +1253,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="10" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="11" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -1235,36 +1285,36 @@
       <c r="F12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="G12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="4">
         <v>1</v>
       </c>
@@ -1296,18 +1346,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="9">
         <v>1</v>
       </c>
@@ -1339,30 +1389,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="15" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="16" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -1371,36 +1421,36 @@
       <c r="F17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="G17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="35"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="4">
         <v>1</v>
       </c>
@@ -1432,18 +1482,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="9">
         <v>1</v>
       </c>
@@ -1475,30 +1525,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="20" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="21" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -1507,36 +1557,36 @@
       <c r="F22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="G22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="35"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="4">
         <v>1</v>
       </c>
@@ -1568,18 +1618,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A24" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="9">
         <v>1</v>
       </c>
@@ -1611,30 +1661,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+    <row r="25" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="26" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A26" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -1643,36 +1693,36 @@
       <c r="F27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="G27" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="4">
         <v>1</v>
       </c>
@@ -1704,18 +1754,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="36"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="9">
         <v>1</v>
       </c>
@@ -1747,30 +1797,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+    <row r="30" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="31" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A31" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -1779,38 +1829,36 @@
       <c r="F32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="G32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="3">
-        <v>4</v>
-      </c>
-      <c r="G33" s="35"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="4">
         <v>1</v>
       </c>
@@ -1827,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N33" s="4">
         <v>2</v>
@@ -1842,18 +1890,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A34" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="36"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="9">
         <v>1</v>
       </c>
@@ -1885,30 +1933,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+    <row r="35" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="36" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A36" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="17" t="s">
@@ -1917,36 +1965,36 @@
       <c r="F37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="G37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="31"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="35"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="4">
         <v>1</v>
       </c>
@@ -1962,8 +2010,8 @@
       <c r="L38" s="5">
         <v>5</v>
       </c>
-      <c r="M38" s="6">
-        <v>1</v>
+      <c r="M38" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="N38" s="4">
         <v>2</v>
@@ -1978,18 +2026,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A39" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="9">
         <v>1</v>
       </c>
@@ -2021,62 +2069,2047 @@
         <v>5</v>
       </c>
     </row>
+    <row r="40" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="41" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="31"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>4</v>
+      </c>
+      <c r="L43" s="5">
+        <v>5</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="4">
+        <v>2</v>
+      </c>
+      <c r="O43" s="4">
+        <v>3</v>
+      </c>
+      <c r="P43" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A44" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9">
+        <v>2</v>
+      </c>
+      <c r="J44" s="9">
+        <v>3</v>
+      </c>
+      <c r="K44" s="9">
+        <v>4</v>
+      </c>
+      <c r="L44" s="20">
+        <v>5</v>
+      </c>
+      <c r="M44" s="11">
+        <v>1</v>
+      </c>
+      <c r="N44" s="12">
+        <v>2</v>
+      </c>
+      <c r="O44" s="12">
+        <v>3</v>
+      </c>
+      <c r="P44" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="46" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3</v>
+      </c>
+      <c r="K48" s="4">
+        <v>4</v>
+      </c>
+      <c r="L48" s="5">
+        <v>5</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="4">
+        <v>2</v>
+      </c>
+      <c r="O48" s="4">
+        <v>3</v>
+      </c>
+      <c r="P48" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A49" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="9">
+        <v>1</v>
+      </c>
+      <c r="I49" s="9">
+        <v>2</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3</v>
+      </c>
+      <c r="K49" s="9">
+        <v>4</v>
+      </c>
+      <c r="L49" s="20">
+        <v>5</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12">
+        <v>2</v>
+      </c>
+      <c r="O49" s="12">
+        <v>3</v>
+      </c>
+      <c r="P49" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="51" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A51" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="31"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4">
+        <v>3</v>
+      </c>
+      <c r="K53" s="4">
+        <v>4</v>
+      </c>
+      <c r="L53" s="5">
+        <v>5</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="4">
+        <v>2</v>
+      </c>
+      <c r="O53" s="4">
+        <v>3</v>
+      </c>
+      <c r="P53" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A54" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9">
+        <v>2</v>
+      </c>
+      <c r="J54" s="9">
+        <v>3</v>
+      </c>
+      <c r="K54" s="9">
+        <v>4</v>
+      </c>
+      <c r="L54" s="20">
+        <v>5</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1</v>
+      </c>
+      <c r="N54" s="12">
+        <v>2</v>
+      </c>
+      <c r="O54" s="12">
+        <v>3</v>
+      </c>
+      <c r="P54" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="56" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A56" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="31"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>2</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3</v>
+      </c>
+      <c r="K58" s="4">
+        <v>4</v>
+      </c>
+      <c r="L58" s="5">
+        <v>5</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="4">
+        <v>2</v>
+      </c>
+      <c r="O58" s="4">
+        <v>3</v>
+      </c>
+      <c r="P58" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A59" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="9">
+        <v>2</v>
+      </c>
+      <c r="J59" s="9">
+        <v>3</v>
+      </c>
+      <c r="K59" s="9">
+        <v>4</v>
+      </c>
+      <c r="L59" s="20">
+        <v>5</v>
+      </c>
+      <c r="M59" s="11">
+        <v>1</v>
+      </c>
+      <c r="N59" s="12">
+        <v>2</v>
+      </c>
+      <c r="O59" s="12">
+        <v>3</v>
+      </c>
+      <c r="P59" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="61" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A61" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="31"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4">
+        <v>2</v>
+      </c>
+      <c r="J63" s="4">
+        <v>3</v>
+      </c>
+      <c r="K63" s="4">
+        <v>4</v>
+      </c>
+      <c r="L63" s="5">
+        <v>5</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="4">
+        <v>2</v>
+      </c>
+      <c r="O63" s="4">
+        <v>3</v>
+      </c>
+      <c r="P63" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A64" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="9">
+        <v>1</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2</v>
+      </c>
+      <c r="J64" s="9">
+        <v>3</v>
+      </c>
+      <c r="K64" s="9">
+        <v>4</v>
+      </c>
+      <c r="L64" s="20">
+        <v>5</v>
+      </c>
+      <c r="M64" s="11">
+        <v>1</v>
+      </c>
+      <c r="N64" s="12">
+        <v>2</v>
+      </c>
+      <c r="O64" s="12">
+        <v>3</v>
+      </c>
+      <c r="P64" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="66" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A66" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="40"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="31"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>2</v>
+      </c>
+      <c r="J68" s="4">
+        <v>3</v>
+      </c>
+      <c r="K68" s="4">
+        <v>4</v>
+      </c>
+      <c r="L68" s="5">
+        <v>5</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="4">
+        <v>2</v>
+      </c>
+      <c r="O68" s="4">
+        <v>3</v>
+      </c>
+      <c r="P68" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A69" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="9">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2</v>
+      </c>
+      <c r="J69" s="9">
+        <v>3</v>
+      </c>
+      <c r="K69" s="9">
+        <v>4</v>
+      </c>
+      <c r="L69" s="20">
+        <v>5</v>
+      </c>
+      <c r="M69" s="11">
+        <v>1</v>
+      </c>
+      <c r="N69" s="12">
+        <v>2</v>
+      </c>
+      <c r="O69" s="12">
+        <v>3</v>
+      </c>
+      <c r="P69" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="71" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A71" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="31"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>2</v>
+      </c>
+      <c r="J73" s="4">
+        <v>3</v>
+      </c>
+      <c r="K73" s="4">
+        <v>4</v>
+      </c>
+      <c r="L73" s="5">
+        <v>5</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" s="4">
+        <v>2</v>
+      </c>
+      <c r="O73" s="4">
+        <v>3</v>
+      </c>
+      <c r="P73" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A74" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="9">
+        <v>1</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2</v>
+      </c>
+      <c r="J74" s="9">
+        <v>3</v>
+      </c>
+      <c r="K74" s="9">
+        <v>4</v>
+      </c>
+      <c r="L74" s="20">
+        <v>5</v>
+      </c>
+      <c r="M74" s="11">
+        <v>1</v>
+      </c>
+      <c r="N74" s="12">
+        <v>2</v>
+      </c>
+      <c r="O74" s="12">
+        <v>3</v>
+      </c>
+      <c r="P74" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="76" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A76" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="40"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="31"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="33"/>
+      <c r="C78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="25"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>2</v>
+      </c>
+      <c r="J78" s="4">
+        <v>3</v>
+      </c>
+      <c r="K78" s="4">
+        <v>4</v>
+      </c>
+      <c r="L78" s="5">
+        <v>5</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N78" s="4">
+        <v>2</v>
+      </c>
+      <c r="O78" s="4">
+        <v>3</v>
+      </c>
+      <c r="P78" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A79" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="9">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9">
+        <v>2</v>
+      </c>
+      <c r="J79" s="9">
+        <v>3</v>
+      </c>
+      <c r="K79" s="9">
+        <v>4</v>
+      </c>
+      <c r="L79" s="20">
+        <v>5</v>
+      </c>
+      <c r="M79" s="11">
+        <v>1</v>
+      </c>
+      <c r="N79" s="12">
+        <v>2</v>
+      </c>
+      <c r="O79" s="12">
+        <v>3</v>
+      </c>
+      <c r="P79" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="81" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="31"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2</v>
+      </c>
+      <c r="J83" s="4">
+        <v>3</v>
+      </c>
+      <c r="K83" s="4">
+        <v>4</v>
+      </c>
+      <c r="L83" s="5">
+        <v>5</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" s="4">
+        <v>3</v>
+      </c>
+      <c r="P83" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A84" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="9">
+        <v>1</v>
+      </c>
+      <c r="I84" s="9">
+        <v>2</v>
+      </c>
+      <c r="J84" s="9">
+        <v>3</v>
+      </c>
+      <c r="K84" s="9">
+        <v>4</v>
+      </c>
+      <c r="L84" s="20">
+        <v>5</v>
+      </c>
+      <c r="M84" s="11">
+        <v>1</v>
+      </c>
+      <c r="N84" s="12">
+        <v>2</v>
+      </c>
+      <c r="O84" s="12">
+        <v>3</v>
+      </c>
+      <c r="P84" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="86" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A86" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="40"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="31"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="33"/>
+      <c r="C88" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="25"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="4">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4">
+        <v>2</v>
+      </c>
+      <c r="J88" s="4">
+        <v>3</v>
+      </c>
+      <c r="K88" s="4">
+        <v>4</v>
+      </c>
+      <c r="L88" s="5">
+        <v>5</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N88" s="4">
+        <v>2</v>
+      </c>
+      <c r="O88" s="4">
+        <v>3</v>
+      </c>
+      <c r="P88" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A89" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="9">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9">
+        <v>2</v>
+      </c>
+      <c r="J89" s="9">
+        <v>3</v>
+      </c>
+      <c r="K89" s="9">
+        <v>4</v>
+      </c>
+      <c r="L89" s="20">
+        <v>5</v>
+      </c>
+      <c r="M89" s="11">
+        <v>1</v>
+      </c>
+      <c r="N89" s="12">
+        <v>2</v>
+      </c>
+      <c r="O89" s="12">
+        <v>3</v>
+      </c>
+      <c r="P89" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="91" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A91" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="40"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="31"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="25"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4">
+        <v>2</v>
+      </c>
+      <c r="J93" s="4">
+        <v>3</v>
+      </c>
+      <c r="K93" s="4">
+        <v>4</v>
+      </c>
+      <c r="L93" s="5">
+        <v>5</v>
+      </c>
+      <c r="M93" s="6">
+        <v>1</v>
+      </c>
+      <c r="N93" s="4">
+        <v>2</v>
+      </c>
+      <c r="O93" s="4">
+        <v>3</v>
+      </c>
+      <c r="P93" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A94" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="26"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="9">
+        <v>1</v>
+      </c>
+      <c r="I94" s="9">
+        <v>2</v>
+      </c>
+      <c r="J94" s="9">
+        <v>3</v>
+      </c>
+      <c r="K94" s="9">
+        <v>4</v>
+      </c>
+      <c r="L94" s="20">
+        <v>5</v>
+      </c>
+      <c r="M94" s="11">
+        <v>1</v>
+      </c>
+      <c r="N94" s="12">
+        <v>2</v>
+      </c>
+      <c r="O94" s="12">
+        <v>3</v>
+      </c>
+      <c r="P94" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="96" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A96" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="37"/>
+      <c r="C96" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="40"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97" s="30"/>
+      <c r="O97" s="30"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="31"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4">
+        <v>2</v>
+      </c>
+      <c r="J98" s="4">
+        <v>3</v>
+      </c>
+      <c r="K98" s="4">
+        <v>4</v>
+      </c>
+      <c r="L98" s="5">
+        <v>5</v>
+      </c>
+      <c r="M98" s="6">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4">
+        <v>2</v>
+      </c>
+      <c r="O98" s="4">
+        <v>3</v>
+      </c>
+      <c r="P98" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A99" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="9">
+        <v>1</v>
+      </c>
+      <c r="I99" s="9">
+        <v>2</v>
+      </c>
+      <c r="J99" s="9">
+        <v>3</v>
+      </c>
+      <c r="K99" s="9">
+        <v>4</v>
+      </c>
+      <c r="L99" s="20">
+        <v>5</v>
+      </c>
+      <c r="M99" s="11">
+        <v>1</v>
+      </c>
+      <c r="N99" s="12">
+        <v>2</v>
+      </c>
+      <c r="O99" s="12">
+        <v>3</v>
+      </c>
+      <c r="P99" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="101" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A101" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="37"/>
+      <c r="C101" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="40"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="30"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="31"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="33"/>
+      <c r="C103" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="4">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2</v>
+      </c>
+      <c r="J103" s="4">
+        <v>3</v>
+      </c>
+      <c r="K103" s="4">
+        <v>4</v>
+      </c>
+      <c r="L103" s="5">
+        <v>5</v>
+      </c>
+      <c r="M103" s="6">
+        <v>1</v>
+      </c>
+      <c r="N103" s="4">
+        <v>2</v>
+      </c>
+      <c r="O103" s="4">
+        <v>3</v>
+      </c>
+      <c r="P103" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A104" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="9">
+        <v>1</v>
+      </c>
+      <c r="I104" s="9">
+        <v>2</v>
+      </c>
+      <c r="J104" s="9">
+        <v>3</v>
+      </c>
+      <c r="K104" s="9">
+        <v>4</v>
+      </c>
+      <c r="L104" s="20">
+        <v>5</v>
+      </c>
+      <c r="M104" s="11">
+        <v>1</v>
+      </c>
+      <c r="N104" s="12">
+        <v>2</v>
+      </c>
+      <c r="O104" s="12">
+        <v>3</v>
+      </c>
+      <c r="P104" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="25.5" thickBot="1"/>
+    <row r="106" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A106" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="37"/>
+      <c r="C106" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="40"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="31"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="33"/>
+      <c r="C108" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="25"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="4">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4">
+        <v>2</v>
+      </c>
+      <c r="J108" s="4">
+        <v>3</v>
+      </c>
+      <c r="K108" s="4">
+        <v>4</v>
+      </c>
+      <c r="L108" s="5">
+        <v>5</v>
+      </c>
+      <c r="M108" s="6">
+        <v>1</v>
+      </c>
+      <c r="N108" s="4">
+        <v>2</v>
+      </c>
+      <c r="O108" s="4">
+        <v>3</v>
+      </c>
+      <c r="P108" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="25.5" thickBot="1">
+      <c r="A109" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="35"/>
+      <c r="C109" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="26"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="9">
+        <v>1</v>
+      </c>
+      <c r="I109" s="9">
+        <v>2</v>
+      </c>
+      <c r="J109" s="9">
+        <v>3</v>
+      </c>
+      <c r="K109" s="9">
+        <v>4</v>
+      </c>
+      <c r="L109" s="20">
+        <v>5</v>
+      </c>
+      <c r="M109" s="11">
+        <v>1</v>
+      </c>
+      <c r="N109" s="12">
+        <v>2</v>
+      </c>
+      <c r="O109" s="12">
+        <v>3</v>
+      </c>
+      <c r="P109" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:L12"/>
+  <mergeCells count="198">
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="M107:Q107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="M102:Q102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="H102:L102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:L97"/>
+    <mergeCell ref="M97:Q97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="M92:Q92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="H92:L92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="M87:Q87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="M82:Q82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="M77:Q77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="M72:Q72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="M67:Q67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="M47:Q47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="M7:Q7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -2086,15 +4119,60 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
